--- a/templates/2V14.xlsx
+++ b/templates/2V14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agustin.lago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82B9969-516F-42BD-8D00-5DA0DB62A81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB47F9E-E0D4-4EEC-A04D-6E71C222ACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23955" yWindow="480" windowWidth="22380" windowHeight="13980" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2v14 EXTERIOR" sheetId="32" r:id="rId1"/>
@@ -23,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -42,9 +33,6 @@
     <t>CHECK LIST - HINCADO</t>
   </si>
   <si>
-    <t xml:space="preserve">Nº DE MESA: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ubicación: NAVARRA - TUDELA </t>
   </si>
   <si>
@@ -156,15 +144,6 @@
     <t>REV.00</t>
   </si>
   <si>
-    <t>EMPRESA DE MONTAJE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA DE MONTAJE O REPARACION: </t>
-  </si>
-  <si>
-    <t>REVIISÓN DE DOCUEMNTO POR REPARACIÓN: R00</t>
-  </si>
-  <si>
     <t>Distancia E - O de hincas TRASERAS</t>
   </si>
   <si>
@@ -511,6 +490,18 @@
   </si>
   <si>
     <t>{{"id_componente_plantilla": 50, "id_tipo_ensayo": 17}}</t>
+  </si>
+  <si>
+    <t>Nº DE MESA: @id_mesa_ct</t>
+  </si>
+  <si>
+    <t>EMPRESA DE MONTAJE: @empresa_montaje</t>
+  </si>
+  <si>
+    <t>REVIISÓN DE DOCUEMNTO POR REPARACIÓN: @inspeccion</t>
+  </si>
+  <si>
+    <t>FECHA DE MONTAJE O REPARACION: @fechainspeccion</t>
   </si>
 </sst>
 </file>
@@ -981,6 +972,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1082,27 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1612,8 +1603,8 @@
   </sheetPr>
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,161 +1619,161 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="31"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="33" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="B9" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1790,28 +1781,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1819,28 +1810,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,28 +1839,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1877,28 +1868,28 @@
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1906,28 +1897,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="52" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,28 +1926,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7">
         <v>-80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1964,28 +1955,28 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,28 +1984,28 @@
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,28 +2013,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="51" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2051,28 +2042,28 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2080,28 +2071,28 @@
         <v>11</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2110,25 +2101,25 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2137,25 +2128,25 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,22 +2158,22 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2194,22 +2185,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="51" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,22 +2212,22 @@
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="51" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2248,22 +2239,22 @@
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,22 +2266,22 @@
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="53" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2302,22 +2293,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,22 +2320,22 @@
         <v>4</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="G33" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="J33" s="56" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2356,40 +2347,40 @@
         <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="57" t="s">
+    </row>
+    <row r="35" spans="2:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I34" s="57" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="J34" s="57" t="s">
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
